--- a/CDC & ELECTIVE/CDC & ELS- course load sw.xlsx
+++ b/CDC & ELECTIVE/CDC & ELS- course load sw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS\AUGSD-TT\Course-Loader\CDC &amp; ELECTIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7918917-4E69-4437-B4E0-15D7534FE37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F1C5A-6989-4A3A-B20F-46B5BE002B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="4188" windowWidth="23040" windowHeight="14100" xr2:uid="{024725D4-4326-407F-B430-597E14E42F2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{024725D4-4326-407F-B430-597E14E42F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="CDC" sheetId="1" r:id="rId1"/>
@@ -806,6 +806,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B245" authorId="0" shapeId="0" xr:uid="{DF21EA6D-D886-4577-B46F-6E4AD925096C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+h106,h141 FY</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1189,7 +1213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7778" uniqueCount="2861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7796" uniqueCount="2869">
   <si>
     <t>SEM 1</t>
   </si>
@@ -9774,6 +9798,30 @@
   </si>
   <si>
     <t xml:space="preserve"> CS</t>
+  </si>
+  <si>
+    <t>M.E.</t>
+  </si>
+  <si>
+    <t>020266</t>
+  </si>
+  <si>
+    <t>022300</t>
+  </si>
+  <si>
+    <t>SAN G514</t>
+  </si>
+  <si>
+    <t>SANITATION FING &amp; PRJ MGMT</t>
+  </si>
+  <si>
+    <t>022301</t>
+  </si>
+  <si>
+    <t>SAN G515</t>
+  </si>
+  <si>
+    <t>EMERGENCY SANITATION &amp; LDRSHIP</t>
   </si>
 </sst>
 </file>
@@ -9948,7 +9996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9976,6 +10024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10108,7 +10162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10400,6 +10454,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10438,7 +10510,27 @@
     <cellStyle name="Normal_Sheet5" xfId="10" xr:uid="{2682A322-8938-42F2-BF72-7E51B97ECDAE}"/>
     <cellStyle name="Normal_Sheet6" xfId="33" xr:uid="{EA18FF12-15FA-46FB-9D12-A7E30B926E36}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11015,10 +11107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC09268F-ECCB-4C2B-83F7-08C6FF7EA2A7}">
-  <dimension ref="A1:J244"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F250" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11301,7 +11393,7 @@
         <v>2786</v>
       </c>
       <c r="G12" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11324,7 +11416,7 @@
         <v>2786</v>
       </c>
       <c r="G13" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11347,7 +11439,7 @@
         <v>2786</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11370,7 +11462,7 @@
         <v>2786</v>
       </c>
       <c r="G15" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11393,7 +11485,7 @@
         <v>2786</v>
       </c>
       <c r="G16" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11416,7 +11508,7 @@
         <v>2786</v>
       </c>
       <c r="G17" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11439,7 +11531,7 @@
         <v>2786</v>
       </c>
       <c r="G18" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12589,7 +12681,7 @@
         <v>2786</v>
       </c>
       <c r="G68" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12612,7 +12704,7 @@
         <v>2786</v>
       </c>
       <c r="G69" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12635,7 +12727,7 @@
         <v>2786</v>
       </c>
       <c r="G70" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12658,7 +12750,7 @@
         <v>2786</v>
       </c>
       <c r="G71" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12681,7 +12773,7 @@
         <v>2786</v>
       </c>
       <c r="G72" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12704,7 +12796,7 @@
         <v>2786</v>
       </c>
       <c r="G73" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12727,7 +12819,7 @@
         <v>2786</v>
       </c>
       <c r="G74" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12750,7 +12842,7 @@
         <v>2786</v>
       </c>
       <c r="G75" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12957,7 +13049,7 @@
         <v>2786</v>
       </c>
       <c r="G84" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -12980,7 +13072,7 @@
         <v>2786</v>
       </c>
       <c r="G85" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13003,7 +13095,7 @@
         <v>2786</v>
       </c>
       <c r="G86" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13210,7 +13302,7 @@
         <v>2786</v>
       </c>
       <c r="G95" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13233,7 +13325,7 @@
         <v>2786</v>
       </c>
       <c r="G96" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13325,7 +13417,7 @@
         <v>2786</v>
       </c>
       <c r="G100" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13348,7 +13440,7 @@
         <v>2786</v>
       </c>
       <c r="G101" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13371,7 +13463,7 @@
         <v>2786</v>
       </c>
       <c r="G102" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13394,7 +13486,7 @@
         <v>2786</v>
       </c>
       <c r="G103" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13417,7 +13509,7 @@
         <v>2786</v>
       </c>
       <c r="G104" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13440,7 +13532,7 @@
         <v>2786</v>
       </c>
       <c r="G105" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14464,7 +14556,7 @@
         <v>2787</v>
       </c>
       <c r="G143" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14487,7 +14579,7 @@
         <v>2787</v>
       </c>
       <c r="G144" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14878,7 +14970,7 @@
         <v>2787</v>
       </c>
       <c r="G161" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14901,7 +14993,7 @@
         <v>2787</v>
       </c>
       <c r="G162" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15844,7 +15936,7 @@
         <v>2787</v>
       </c>
       <c r="G203" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15867,7 +15959,7 @@
         <v>2787</v>
       </c>
       <c r="G204" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15890,7 +15982,7 @@
         <v>2787</v>
       </c>
       <c r="G205" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16735,7 +16827,7 @@
         <v>2787</v>
       </c>
       <c r="G242" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16758,7 +16850,7 @@
         <v>2787</v>
       </c>
       <c r="G243" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -16781,44 +16873,119 @@
         <v>2787</v>
       </c>
       <c r="G244" s="110" t="s">
-        <v>2854</v>
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="111" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B245" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="C245" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="D245" s="113">
+        <v>5</v>
+      </c>
+      <c r="E245" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="F245" s="115" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G245" s="115" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="116" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B246" s="117" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C246" s="116" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D246" s="118">
+        <v>5</v>
+      </c>
+      <c r="E246" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="115" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G246" s="115" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="116" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B247" s="117" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C247" s="116" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D247" s="116">
+        <v>5</v>
+      </c>
+      <c r="E247" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="115" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G247" s="115" t="s">
+        <v>2861</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L244" xr:uid="{2A7EDFFD-7C00-421A-9785-0A4BFCFD7B72}"/>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B135 B245:B1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+  <conditionalFormatting sqref="B1:B135 B248:B1048576">
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
+    <cfRule type="duplicateValues" dxfId="25" priority="12" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="24" priority="11" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="23" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="22" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="21" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B51">
     <cfRule type="duplicateValues" dxfId="20" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B52">
     <cfRule type="duplicateValues" dxfId="19" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="18" priority="5" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="17" priority="4" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="16" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B244">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B245">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246:A247">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37704,7 +37871,7 @@
   </sheetData>
   <autoFilter ref="A1:F1242" xr:uid="{D0057714-C542-4AB9-8D52-7162A4A2A91B}"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -37959,41 +38126,41 @@
     <sortCondition ref="E3:E14"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576 E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A18 A3:A13">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CDC & ELECTIVE/CDC & ELS- course load sw.xlsx
+++ b/CDC & ELECTIVE/CDC & ELS- course load sw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BITS\AUGSD-TT\Course-Loader\CDC &amp; ELECTIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F1C5A-6989-4A3A-B20F-46B5BE002B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74171273-7345-492A-916D-A69D376FD070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" xr2:uid="{024725D4-4326-407F-B430-597E14E42F2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="19416" activeTab="1" xr2:uid="{024725D4-4326-407F-B430-597E14E42F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="CDC" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1213,7 +1224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7796" uniqueCount="2869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="2872">
   <si>
     <t>SEM 1</t>
   </si>
@@ -9822,6 +9833,15 @@
   </si>
   <si>
     <t>EMERGENCY SANITATION &amp; LDRSHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.E. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.E </t>
   </si>
 </sst>
 </file>
@@ -10462,7 +10482,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10472,6 +10491,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10510,7 +10530,237 @@
     <cellStyle name="Normal_Sheet5" xfId="10" xr:uid="{2682A322-8938-42F2-BF72-7E51B97ECDAE}"/>
     <cellStyle name="Normal_Sheet6" xfId="33" xr:uid="{EA18FF12-15FA-46FB-9D12-A7E30B926E36}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10779,6 +11029,16 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -11107,10 +11367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC09268F-ECCB-4C2B-83F7-08C6FF7EA2A7}">
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F250" sqref="F250"/>
+    <sheetView topLeftCell="A230" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16892,100 +17152,415 @@
       <c r="E245" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="F245" s="115" t="s">
+      <c r="F245" s="110" t="s">
         <v>2787</v>
       </c>
-      <c r="G245" s="115" t="s">
+      <c r="G245" s="110" t="s">
         <v>2861</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="116" t="s">
+      <c r="A246" s="115" t="s">
         <v>2863</v>
       </c>
-      <c r="B246" s="117" t="s">
+      <c r="B246" s="116" t="s">
         <v>2864</v>
       </c>
-      <c r="C246" s="116" t="s">
+      <c r="C246" s="115" t="s">
         <v>2865</v>
       </c>
-      <c r="D246" s="118">
+      <c r="D246" s="117">
         <v>5</v>
       </c>
-      <c r="E246" s="117" t="s">
+      <c r="E246" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F246" s="115" t="s">
+      <c r="F246" s="110" t="s">
         <v>2787</v>
       </c>
-      <c r="G246" s="115" t="s">
+      <c r="G246" s="110" t="s">
         <v>2861</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="116" t="s">
+      <c r="A247" s="115" t="s">
         <v>2866</v>
       </c>
-      <c r="B247" s="117" t="s">
+      <c r="B247" s="116" t="s">
         <v>2867</v>
       </c>
-      <c r="C247" s="116" t="s">
+      <c r="C247" s="115" t="s">
         <v>2868</v>
       </c>
-      <c r="D247" s="116">
+      <c r="D247" s="115">
         <v>5</v>
       </c>
-      <c r="E247" s="117" t="s">
+      <c r="E247" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="F247" s="115" t="s">
+      <c r="F247" s="110" t="s">
         <v>2787</v>
       </c>
-      <c r="G247" s="115" t="s">
+      <c r="G247" s="110" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="94" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C248" s="95" t="s">
+        <v>574</v>
+      </c>
+      <c r="E248" t="s">
+        <v>209</v>
+      </c>
+      <c r="F248" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G248" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="94" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C249" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E249" t="s">
+        <v>209</v>
+      </c>
+      <c r="F249" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G249" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="94" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C250" s="95" t="s">
+        <v>587</v>
+      </c>
+      <c r="E250" t="s">
+        <v>209</v>
+      </c>
+      <c r="F250" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G250" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="94" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C251" s="95" t="s">
+        <v>565</v>
+      </c>
+      <c r="E251" t="s">
+        <v>209</v>
+      </c>
+      <c r="F251" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G251" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="94" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C252" s="95" t="s">
+        <v>604</v>
+      </c>
+      <c r="E252" t="s">
+        <v>209</v>
+      </c>
+      <c r="F252" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G252" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="94" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C253" s="95" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E253" t="s">
+        <v>209</v>
+      </c>
+      <c r="F253" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G253" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="94" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C254" s="97" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E254" t="s">
+        <v>209</v>
+      </c>
+      <c r="F254" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G254" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="99" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C255" s="98" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E255" t="s">
+        <v>209</v>
+      </c>
+      <c r="F255" s="118" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G255" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="108" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C256" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="E256" t="s">
+        <v>209</v>
+      </c>
+      <c r="F256" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G256" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="102" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C257" s="103" t="s">
+        <v>480</v>
+      </c>
+      <c r="E257" t="s">
+        <v>209</v>
+      </c>
+      <c r="F257" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G257" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="102" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C258" s="103" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E258" t="s">
+        <v>209</v>
+      </c>
+      <c r="F258" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G258" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="102" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C259" s="103" t="s">
+        <v>509</v>
+      </c>
+      <c r="E259" t="s">
+        <v>209</v>
+      </c>
+      <c r="F259" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G259" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="102" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C260" s="103" t="s">
+        <v>522</v>
+      </c>
+      <c r="E260" t="s">
+        <v>209</v>
+      </c>
+      <c r="F260" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G260" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="102" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C261" s="103" t="s">
+        <v>535</v>
+      </c>
+      <c r="E261" t="s">
+        <v>209</v>
+      </c>
+      <c r="F261" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G261" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="106" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C262" s="103" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E262" t="s">
+        <v>209</v>
+      </c>
+      <c r="F262" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G262" s="118" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="106" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C263" s="103" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E263" t="s">
+        <v>209</v>
+      </c>
+      <c r="F263" s="118" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G263" s="118" t="s">
         <v>2861</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L244" xr:uid="{2A7EDFFD-7C00-421A-9785-0A4BFCFD7B72}"/>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B135 B248:B1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+  <conditionalFormatting sqref="A246:A247">
+    <cfRule type="duplicateValues" dxfId="50" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B135 B264:B1048576">
+    <cfRule type="duplicateValues" dxfId="49" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="25" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="27" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="24" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="23" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="22" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="21" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="23" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="20" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="19" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="18" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="28" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B244">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B245">
+    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B245">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B248:B251">
+    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A246:A247">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B248:B251">
+    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248:C251">
+    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B252:B255">
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B252:B255">
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252:C255">
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B256:B257">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256:C257">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B258:B261">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258:C261">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B259">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B261">
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B262:B263">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262:C263">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16995,10 +17570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA694C5-B29C-4428-BD49-A6343D643873}">
-  <dimension ref="A1:V1095"/>
+  <dimension ref="A1:V1105"/>
   <sheetViews>
-    <sheetView topLeftCell="C878" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I885" sqref="I885"/>
+    <sheetView tabSelected="1" topLeftCell="A1083" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1105" sqref="F1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37868,10 +38443,178 @@
         <v>1922</v>
       </c>
     </row>
+    <row r="1096" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1096" s="94" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C1096" s="95" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1096" s="1" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1097" s="96" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C1097" s="98" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1097" s="1" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1098" s="96" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C1098" s="95" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1098" s="1" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1099" s="96" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C1099" s="95" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1099" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1100" s="94" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1100" s="95" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1100" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1101" s="94" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1101" s="95" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1101" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1102" s="104" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C1102" s="95" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1102" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1103" s="94" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C1103" s="95" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1103" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1104" s="102" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C1104" s="105" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1104" s="1" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1105" s="102" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C1105" s="105" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1105" s="1" t="s">
+        <v>2871</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1242" xr:uid="{D0057714-C542-4AB9-8D52-7162A4A2A91B}"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1103">
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1096:C1103">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1096:B1103">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1096">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1099">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1096:B1102">
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1103">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1104:B1105">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1104:C1105">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -37883,7 +38626,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37917,12 +38660,6 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>574</v>
-      </c>
       <c r="E3" s="108" t="s">
         <v>2772</v>
       </c>
@@ -37931,12 +38668,6 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
-        <v>2760</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>223</v>
-      </c>
       <c r="E4" s="102" t="s">
         <v>2774</v>
       </c>
@@ -37945,12 +38676,6 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
-        <v>2764</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>587</v>
-      </c>
       <c r="E5" s="96" t="s">
         <v>2757</v>
       </c>
@@ -37959,12 +38684,6 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
-        <v>2766</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>565</v>
-      </c>
       <c r="E6" s="94" t="s">
         <v>2768</v>
       </c>
@@ -38125,42 +38844,43 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F14">
     <sortCondition ref="E3:E14"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576 E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A2 E1:E1048576 A7:A1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A18 A3:A13">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  <conditionalFormatting sqref="A15:A18 A7:A13">
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576 F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  <conditionalFormatting sqref="B1:B2 F1:F1048576 B7:B1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
